--- a/src/test/java/ExcelFiles/BooksList.xlsx
+++ b/src/test/java/ExcelFiles/BooksList.xlsx
@@ -12,65 +12,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>It Starts with Us: A Novel (It Ends with Us)
-30,584
+32,941
 $12.98</t>
   </si>
   <si>
     <t>It Ends with Us: A Novel (1)
-187,853
+188,923
 $9.99</t>
   </si>
   <si>
     <t>Diper Överlöde (Diary of a Wimpy Kid Book 17)
-1,052
+1,200
 $8.79</t>
   </si>
   <si>
-    <t>Little Blue Truck's Halloween: A Halloween Book for Kids
-12,435</t>
+    <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones
+87,331
+$11.98</t>
+  </si>
+  <si>
+    <t>Verity
+182,913
+$11.26</t>
+  </si>
+  <si>
+    <t>So Help Me God
+$23.98</t>
   </si>
   <si>
     <t>Friends, Lovers, and the Big Terrible Thing: A Memoir
-1,539
+2,110
 $19.40</t>
   </si>
   <si>
+    <t>How to Catch a Turkey
+4,031
+$7.70</t>
+  </si>
+  <si>
+    <t>The Light We Carry: Overcoming in Uncertain Times
+$21.88</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Order of the Phoenix: The Illustrated Edition (Harry Potter, Book 5)…
+1,142
+$31.99</t>
+  </si>
+  <si>
+    <t>Reminders of Him: A Novel
+164,392
+$9.57</t>
+  </si>
+  <si>
+    <t>November 9: A Novel
+42,543
+$9.99</t>
+  </si>
+  <si>
+    <t>The Very Hungry Caterpillar
+55,088
+$5.00</t>
+  </si>
+  <si>
+    <t>The Body Keeps the Score: Brain, Mind, and Body in the Healing of Trauma
+57,558
+$11.40</t>
+  </si>
+  <si>
+    <t>Interesting Facts For Curious Minds: 1572 Random But Mind-Blowing Facts About History,…
+369
+$12.90</t>
+  </si>
+  <si>
+    <t>Go-To Dinners: A Barefoot Contessa Cookbook
+363
+$21.92</t>
+  </si>
+  <si>
+    <t>Turkey Trouble
+5,444
+$7.84</t>
+  </si>
+  <si>
+    <t>The Boys from Biloxi: A Legal Thriller
+9,371
+$16.99</t>
+  </si>
+  <si>
+    <t>Ugly Love: A Novel
+90,330
+$10.40</t>
+  </si>
+  <si>
     <t>Stellarlune (9) (Keeper of the Lost Cities)
-67
-$16.99</t>
-  </si>
-  <si>
-    <t>November 9: A Novel
-42,278
+327
+$17.59</t>
+  </si>
+  <si>
+    <t>I'm Glad My Mom Died
+26,349
+$17.28</t>
+  </si>
+  <si>
+    <t>Spare
+$23.13</t>
+  </si>
+  <si>
+    <t>I Love You to the Moon and Back
+61,326
+$4.31</t>
+  </si>
+  <si>
+    <t>Lessons in Chemistry: A Novel
+53,841
+$18.81</t>
+  </si>
+  <si>
+    <t>The 48 Laws of Power
+54,601
+$11.60</t>
+  </si>
+  <si>
+    <t>Brown Bear, Brown Bear, What Do You See?
+47,913
+$4.55</t>
+  </si>
+  <si>
+    <t>Bear Stays Up for Christmas (The Bear Books)
+5,366
+$4.99</t>
+  </si>
+  <si>
+    <t>The Seven Husbands of Evelyn Hugo: A Novel
+133,525
+$9.42</t>
+  </si>
+  <si>
+    <t>Fairy Tale
+22,685
+$18.49</t>
+  </si>
+  <si>
+    <t>If Animals Kissed Good Night
+70,260
+$4.14</t>
+  </si>
+  <si>
+    <t>Good Boundaries and Goodbyes: Loving Others Without Losing the Best of Who You Are
+92
+$19.98</t>
+  </si>
+  <si>
+    <t>How To Draw 101 Cute Stuff For Kids: Simple and Easy Step-by-Step Guide Book to Draw…
+615
 $9.99</t>
   </si>
   <si>
-    <t>Verity
-181,936
-$11.26</t>
-  </si>
-  <si>
-    <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones
-87,125
-$11.98</t>
-  </si>
-  <si>
-    <t>How to Catch a Turkey
-4,015
-$7.70</t>
-  </si>
-  <si>
-    <t>The Very Hungry Caterpillar
-55,032
-$5.00</t>
-  </si>
-  <si>
-    <t>Turkey Trouble
-5,424
-$5.75</t>
+    <t>Little Blue Truck's Christmas
+15,218
+$11.20</t>
+  </si>
+  <si>
+    <t>Radio's Greatest of All Time
+319
+$21.98</t>
+  </si>
+  <si>
+    <t>Surrender: 40 Songs, One Story
+89
+$21.29</t>
+  </si>
+  <si>
+    <t>Where the Crawdads Sing
+361,097
+$9.98</t>
+  </si>
+  <si>
+    <t>My First Learn-to-Write Workbook: Practice for Kids with Pen Control, Line Tracing,…
+78,488
+$4.07</t>
+  </si>
+  <si>
+    <t>The Stories We Tell: Every Piece of Your Story Matters
+10
+$21.43</t>
+  </si>
+  <si>
+    <t>Desert Star (A Renée Ballard and Harry Bosch Novel)
+1,752
+$19.98</t>
+  </si>
+  <si>
+    <t>World of Eric Carle, Around the Farm 30-Button Animal Sound Book - Great for First Words - PI…
+18,526
+$11.57</t>
+  </si>
+  <si>
+    <t>The Complete Cookbook for Young Chefs: 100+ Recipes that You'll Love to Cook and Eat
+19,431
+$9.75</t>
+  </si>
+  <si>
+    <t>The Wonderful Things You Will Be
+25,740
+$8.55</t>
+  </si>
+  <si>
+    <t>All Your Perfects: A Novel
+20,741
+$10.31</t>
+  </si>
+  <si>
+    <t>Maybe Not: A Novella (2) (Maybe Someday)
+5,974
+$8.89</t>
+  </si>
+  <si>
+    <t>National Geographic Little Kids First Big Book of Why (National Geographic Little Kids First Big…
+17,995
+$8.72</t>
+  </si>
+  <si>
+    <t>The Silent Patient
+139,680
+$10.99</t>
+  </si>
+  <si>
+    <t>Maybe Someday (1)
+15,065
+$9.99</t>
+  </si>
+  <si>
+    <t>The Four Agreements: A Practical Guide to Personal Freedom (A Toltec Wisdom Book)
+88,155
+$7.74</t>
   </si>
 </sst>
 </file>
@@ -115,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,6 +359,186 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
